--- a/en/05_programming_fundamentals/memory_example_3/stack_2.xlsx
+++ b/en/05_programming_fundamentals/memory_example_3/stack_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\uniCourse_dataStructuresAndAlgorithms\en\05_programming_fundamentals\memory_example_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E4476C-56E4-4946-9CF7-9EAAF85ACB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DE37D-8063-4B11-B6FA-2C50977A859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{8BF92E7E-5C1F-4F19-BA14-058CE21AC0FB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Anton Curmanschii</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{14804C5C-573A-4FB4-A475-D84C25B02657}">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{14804C5C-573A-4FB4-A475-D84C25B02657}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>…</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Assuming the variables get allocated as they is needed (not how it works in practice, but an implementation like this would be allowed)</t>
+  </si>
+  <si>
+    <t>a3=2</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -238,67 +241,388 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,329 +938,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA10A112-88CA-4C32-919B-646A4D35A1D7}">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="3" max="3" width="4" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="16" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>60</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="F3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="H3" s="28" t="s">
         <v>0</v>
       </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="7">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12">
         <v>56</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="16" t="s">
         <v>0</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="7">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12">
         <v>52</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>3</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="7">
+      <c r="B6" s="9"/>
+      <c r="C6" s="12">
         <v>48</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="7">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12">
         <v>44</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="L7" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="7">
+      <c r="B8" s="9"/>
+      <c r="C8" s="12">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="K8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="L8" s="18" t="s">
         <v>10</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="7">
+      <c r="B9" s="9"/>
+      <c r="C9" s="12">
         <v>36</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="K9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="L9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="7">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9"/>
+      <c r="C10" s="12">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="K10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="K12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="L12" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/en/05_programming_fundamentals/memory_example_3/stack_2.xlsx
+++ b/en/05_programming_fundamentals/memory_example_3/stack_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\uniCourse_dataStructuresAndAlgorithms\en\05_programming_fundamentals\memory_example_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DE37D-8063-4B11-B6FA-2C50977A859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC118E-AA06-451F-957A-26FD642A79B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{8BF92E7E-5C1F-4F19-BA14-058CE21AC0FB}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>…</t>
   </si>
@@ -149,20 +149,55 @@
     <t>Possible address</t>
   </si>
   <si>
-    <t>Assuming the variables are allocated all at once, even if their memory won't be used (this is how it usually works, because it's useful for compiler optimizations)</t>
-  </si>
-  <si>
     <t>Assuming the variables get allocated as they is needed (not how it works in practice, but an implementation like this would be allowed)</t>
   </si>
   <si>
     <t>a3=2</t>
+  </si>
+  <si>
+    <t>stackMemory1</t>
+  </si>
+  <si>
+    <t>stackMemory2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address of `int a1 = *b;` </t>
+  </si>
+  <si>
+    <t>address of `int a2 = *c;`</t>
+  </si>
+  <si>
+    <r>
+      <t>Assuming the variables are allocated all at once, even if their memory won't be used (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this is how it usually works</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, because it's useful for compiler optimizations)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +217,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,90 +582,90 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA10A112-88CA-4C32-919B-646A4D35A1D7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,6 +992,10 @@
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.21875" customWidth="1"/>
     <col min="3" max="3" width="4" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -956,51 +1003,51 @@
       <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>60</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="12">
+      <c r="B4" s="33"/>
+      <c r="C4" s="9">
         <v>56</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1010,51 +1057,51 @@
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="12">
+      <c r="B5" s="33"/>
+      <c r="C5" s="9">
         <v>52</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="12">
+      <c r="B6" s="33"/>
+      <c r="C6" s="9">
         <v>48</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1066,24 +1113,24 @@
       <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="17"/>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12">
+      <c r="B7" s="33"/>
+      <c r="C7" s="9">
         <v>44</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1095,26 +1142,26 @@
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="12">
+      <c r="B8" s="33"/>
+      <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1126,26 +1173,26 @@
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="12">
+      <c r="B9" s="33"/>
+      <c r="C9" s="9">
         <v>36</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1157,112 +1204,112 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="12">
+      <c r="B10" s="33"/>
+      <c r="C10" s="9">
         <v>32</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="32" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="35" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="G11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>16</v>
+      <c r="K11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
